--- a/September'21/26.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/26.09.2021/Daily Sales Info Sep'21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -2360,6 +2360,12 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2451,12 +2457,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14873,80 +14873,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>430730</v>
@@ -14976,19 +14976,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>122598</v>
@@ -15006,13 +15006,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -16155,11 +16155,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>186832</v>
@@ -16230,11 +16230,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>366496</v>
@@ -16271,14 +16271,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -16528,80 +16528,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -16640,19 +16640,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>30777</v>
@@ -16666,13 +16666,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -17775,11 +17775,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>157624</v>
@@ -17850,11 +17850,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>143577</v>
@@ -17891,14 +17891,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -18152,80 +18152,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -18264,19 +18264,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>236866</v>
@@ -18290,13 +18290,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -19485,11 +19485,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>138606</v>
@@ -19560,11 +19560,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>241837</v>
@@ -19601,14 +19601,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -19887,80 +19887,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -19999,21 +19999,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>524156</v>
@@ -20035,15 +20035,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -21361,11 +21361,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>190600</v>
@@ -21444,11 +21444,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>575393</v>
@@ -21485,16 +21485,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -21790,80 +21790,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -21902,21 +21902,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207793</v>
@@ -21932,15 +21932,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23276,11 +23276,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>218159</v>
@@ -23359,11 +23359,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>565027</v>
@@ -23400,16 +23400,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23690,80 +23690,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -23802,19 +23802,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -23828,13 +23828,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -24985,11 +24985,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>203969</v>
@@ -25060,11 +25060,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>568850</v>
@@ -25101,14 +25101,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25422,80 +25422,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -25534,19 +25534,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>103896</v>
@@ -25560,13 +25560,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26756,11 +26756,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>227422</v>
@@ -26831,11 +26831,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>445324</v>
@@ -26872,14 +26872,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -27147,80 +27147,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -27259,21 +27259,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -27287,15 +27287,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28635,11 +28635,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>352934</v>
@@ -28718,11 +28718,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>404078</v>
@@ -28759,16 +28759,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -29056,80 +29056,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -29168,19 +29168,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -29192,13 +29192,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -30233,11 +30233,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>4112</v>
@@ -30308,11 +30308,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>399966</v>
@@ -30349,14 +30349,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30610,80 +30610,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -30722,19 +30722,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -30746,13 +30746,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31910,11 +31910,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="60">
         <f t="shared" ref="D28:T28" si="6">SUM(D7:D27)</f>
         <v>223014</v>
@@ -31985,11 +31985,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="81">
         <f t="shared" ref="D29:L29" si="7">D4+D5-D28</f>
         <v>176952</v>
@@ -32026,14 +32026,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -32293,80 +32293,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -32405,21 +32405,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>623376</v>
@@ -32433,15 +32433,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
     </row>
     <row r="6" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -33788,11 +33788,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>335748</v>
@@ -33871,11 +33871,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>464580</v>
@@ -33912,16 +33912,16 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -34196,80 +34196,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -34308,19 +34308,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -34334,13 +34334,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -35499,11 +35499,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>224626</v>
@@ -35574,11 +35574,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>453558</v>
@@ -35615,14 +35615,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -35877,80 +35877,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -35989,21 +35989,21 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>316365</v>
@@ -36017,15 +36017,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -37445,11 +37445,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>375225</v>
@@ -37528,11 +37528,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>405720</v>
@@ -37573,15 +37573,15 @@
         <f>R29-U29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="122"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="126"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -37858,80 +37858,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -37970,21 +37970,21 @@
         <v>45</v>
       </c>
       <c r="M4" s="94"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
       <c r="U4" s="86"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>479792</v>
@@ -38000,13 +38000,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="95"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
       <c r="U5" s="86"/>
       <c r="V5" s="86"/>
     </row>
@@ -39252,11 +39252,11 @@
       <c r="V27" s="90"/>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>164000</v>
@@ -39329,11 +39329,11 @@
       <c r="V28" s="91"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>721512</v>
@@ -39371,13 +39371,13 @@
         <v>45</v>
       </c>
       <c r="M29" s="92"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="129"/>
       <c r="U29" s="93"/>
       <c r="V29" s="93"/>
     </row>
@@ -39656,80 +39656,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -39768,19 +39768,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -39792,13 +39792,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -40985,11 +40985,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>162249</v>
@@ -41060,11 +41060,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>559263</v>
@@ -41101,14 +41101,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41366,80 +41366,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -41478,19 +41478,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -41506,13 +41506,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -42687,11 +42687,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>222745</v>
@@ -42762,11 +42762,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>648206</v>
@@ -42803,14 +42803,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -43065,80 +43065,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -43177,19 +43177,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -43201,13 +43201,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -44238,11 +44238,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -44313,11 +44313,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>648206</v>
@@ -44354,14 +44354,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -44615,80 +44615,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -44727,19 +44727,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -44751,13 +44751,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -45928,11 +45928,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>190790</v>
@@ -46003,11 +46003,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>457416</v>
@@ -46044,14 +46044,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -46287,9 +46287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46305,80 +46305,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -46417,19 +46417,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -46443,13 +46443,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -47640,11 +47640,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>215314</v>
@@ -47715,11 +47715,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -47756,14 +47756,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -48017,80 +48017,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -48129,19 +48129,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -48153,13 +48153,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -49190,11 +49190,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -49265,11 +49265,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -49306,14 +49306,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -49567,80 +49567,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -49679,19 +49679,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -49703,13 +49703,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -50740,11 +50740,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -50815,11 +50815,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -50856,14 +50856,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -51117,80 +51117,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -51229,19 +51229,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -51253,13 +51253,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -52290,11 +52290,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -52365,11 +52365,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -52406,14 +52406,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52667,80 +52667,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -52779,19 +52779,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -52803,13 +52803,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -53840,11 +53840,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -53915,11 +53915,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>453558</v>
@@ -53956,14 +53956,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -54217,80 +54217,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -54329,19 +54329,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -54353,13 +54353,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -55390,11 +55390,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -55465,11 +55465,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -55506,14 +55506,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55767,80 +55767,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -55879,19 +55879,19 @@
         <v>45</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -55903,13 +55903,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -56940,11 +56940,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -57015,11 +57015,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -57056,14 +57056,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -57318,80 +57318,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
@@ -57430,19 +57430,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -57481,13 +57481,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -59148,11 +59148,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>5049000</v>
@@ -59223,11 +59223,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>553790</v>
@@ -59264,14 +59264,14 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59503,8 +59503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59516,12 +59516,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
     </row>
@@ -59532,10 +59532,10 @@
       <c r="B2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="100" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="65"/>
@@ -59936,80 +59936,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -60048,19 +60048,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -60072,13 +60072,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -61272,11 +61272,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>197228</v>
@@ -61347,11 +61347,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>256330</v>
@@ -61388,14 +61388,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -61677,80 +61677,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -61792,19 +61792,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>519480</v>
@@ -61818,13 +61818,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -63001,11 +63001,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>182217</v>
@@ -63076,11 +63076,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>593593</v>
@@ -63117,14 +63117,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -63394,80 +63394,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -63506,19 +63506,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>275741</v>
@@ -63534,13 +63534,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -64747,11 +64747,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>219581</v>
@@ -64822,11 +64822,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>649753</v>
@@ -64863,14 +64863,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -65141,80 +65141,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -65253,19 +65253,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>172780</v>
@@ -65279,13 +65279,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -66480,11 +66480,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>180020</v>
@@ -66555,11 +66555,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>642513</v>
@@ -66596,14 +66596,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -66871,80 +66871,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -66983,19 +66983,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>103896</v>
@@ -67013,13 +67013,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -68210,11 +68210,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>205573</v>
@@ -68285,11 +68285,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>540836</v>
@@ -68326,14 +68326,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -68605,80 +68605,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -68717,19 +68717,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -68741,13 +68741,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -69951,11 +69951,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>270412</v>
@@ -70026,11 +70026,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>270424</v>
@@ -70067,14 +70067,14 @@
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
